--- a/biology/Botanique/Molette_(cépage)/Molette_(cépage).xlsx
+++ b/biology/Botanique/Molette_(cépage)/Molette_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Molette_(c%C3%A9page)</t>
+          <t>Molette_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le molette est un cépage blanc de Savoie et du Bugey. Il donne un vin pauvre en alcool, au goût assez peu marqué, c'est pourquoi il est généralement mélangé avec de l'altesse.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Molette_(c%C3%A9page)</t>
+          <t>Molette_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molette est aussi connue sous les noms de molette blanche et molette de Seyssel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molette est aussi connue sous les noms de molette blanche et molette de Seyssel.
 </t>
         </is>
       </c>
